--- a/ДЗ КИЛИ Демина Дарья 184.xlsx
+++ b/ДЗ КИЛИ Демина Дарья 184.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10" conformance="strict">
+<workbook xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2" conformance="strict">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10909"/>
   <workbookPr dateCompatibility="0" hidePivotFieldList="1" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/darademina/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7FD8BD85-5C67-1C42-84F1-27D29CEDEC6D}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{D4F538E7-0E4C-0B42-BDA1-304691D3C3C7}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="280" yWindow="460" windowWidth="28240" windowHeight="16560" activeTab="1"/>
+    <workbookView xWindow="280" yWindow="460" windowWidth="28240" windowHeight="16560" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист8" sheetId="1" r:id="rId1"/>
@@ -3301,7 +3301,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="24" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -3930,6 +3930,7114 @@
 </styleSheet>
 </file>
 
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://purl.oclc.org/ooxml/drawingml/chart" xmlns:a="http://purl.oclc.org/ooxml/drawingml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0%">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'3.1.a'!$A$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>прошедшее</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>'3.1.a'!$B$3:$C$4</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="2"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>ПЕРЕ</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>С</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>Названия столбцов</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'3.1.a'!$B$5:$C$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>15</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-B366-0445-889E-4990923D6E5D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'3.1.a'!$A$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>будущее</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>'3.1.a'!$B$3:$C$4</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="2"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>ПЕРЕ</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>С</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>Названия столбцов</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'3.1.a'!$B$6:$C$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-B366-0445-889E-4990923D6E5D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="180914719"/>
+        <c:axId val="198305039"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="180914719"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15%"/>
+                <a:lumOff val="85%"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0%">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="198305039"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="198305039"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15%"/>
+                  <a:lumOff val="85%"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0%">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="180914719"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0%">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15%"/>
+          <a:lumOff val="85%"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://purl.oclc.org/ooxml/drawingml/chart" xmlns:a="http://purl.oclc.org/ooxml/drawingml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0%">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'3.1.б'!$A$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>ПЕРЕ</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>'3.1.б'!$B$3:$G$4</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="6"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>2 лицо, ед ч</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>2 лицо, мн ч</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>3 лицо, ед ч</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>3 лицо, мн ч</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v> лицо неопределенно, мн ч</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>лицо неопределенно, ед ч</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>Названия столбцов</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'3.1.б'!$B$5:$G$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>16</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-76B0-6E4D-8FF6-8AE7784C5543}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'3.1.б'!$A$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>С</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>'3.1.б'!$B$3:$G$4</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="6"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>2 лицо, ед ч</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>2 лицо, мн ч</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>3 лицо, ед ч</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>3 лицо, мн ч</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v> лицо неопределенно, мн ч</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>лицо неопределенно, ед ч</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>Названия столбцов</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'3.1.б'!$B$6:$G$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>13</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-76B0-6E4D-8FF6-8AE7784C5543}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="224626303"/>
+        <c:axId val="200492303"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="224626303"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15%"/>
+                <a:lumOff val="85%"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0%">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="200492303"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="200492303"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15%"/>
+                  <a:lumOff val="85%"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0%">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="224626303"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0%">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15%"/>
+          <a:lumOff val="85%"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://purl.oclc.org/ooxml/drawingml/chart" xmlns:a="http://purl.oclc.org/ooxml/drawingml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0%">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'3.1.в'!$B$3:$B$4</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Названия столбцов</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>ПЕРЕ</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'3.1.в'!$A$5:$A$13</c:f>
+              <c:strCache>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>будущее</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2 лицо, ед ч</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2 лицо, мн ч</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3 лицо, ед ч</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3 лицо, мн ч</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>прошедшее</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v> лицо неопределенно, мн ч</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>лицо неопределенно, ед ч</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Общий итог</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'3.1.в'!$B$5:$B$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>25</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-6C71-0F46-9121-C9A8B9BD4B11}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'3.1.в'!$C$3:$C$4</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Названия столбцов</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>С</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'3.1.в'!$A$5:$A$13</c:f>
+              <c:strCache>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>будущее</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2 лицо, ед ч</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2 лицо, мн ч</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3 лицо, ед ч</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3 лицо, мн ч</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>прошедшее</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v> лицо неопределенно, мн ч</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>лицо неопределенно, ед ч</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Общий итог</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'3.1.в'!$C$5:$C$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>25</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-6C71-0F46-9121-C9A8B9BD4B11}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="608356159"/>
+        <c:axId val="609138447"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="608356159"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15%"/>
+                <a:lumOff val="85%"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0%">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="609138447"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="609138447"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15%"/>
+                  <a:lumOff val="85%"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0%">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="608356159"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0%">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15%"/>
+          <a:lumOff val="85%"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://purl.oclc.org/ooxml/drawingml/chart" xmlns:a="http://purl.oclc.org/ooxml/drawingml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0%">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'3.2.а'!$A$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>абстрактный объект</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>'3.2.а'!$B$3:$C$4</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="2"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>ПЕРЕ</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>С</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>Названия столбцов</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'3.2.а'!$B$5:$C$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-0B9F-3A4A-A290-09C9E23D987C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'3.2.а'!$A$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>животное</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>'3.2.а'!$B$3:$C$4</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="2"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>ПЕРЕ</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>С</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>Названия столбцов</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'3.2.а'!$B$6:$C$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-0B9F-3A4A-A290-09C9E23D987C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'3.2.а'!$A$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>лицо</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>'3.2.а'!$B$3:$C$4</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="2"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>ПЕРЕ</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>С</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>Названия столбцов</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'3.2.а'!$B$7:$C$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-0B9F-3A4A-A290-09C9E23D987C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'3.2.а'!$A$8</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>NA</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>'3.2.а'!$B$3:$C$4</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="2"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>ПЕРЕ</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>С</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>Названия столбцов</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'3.2.а'!$B$8:$C$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-0B9F-3A4A-A290-09C9E23D987C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="224928031"/>
+        <c:axId val="224713423"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="224928031"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15%"/>
+                <a:lumOff val="85%"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0%">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="224713423"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="224713423"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15%"/>
+                  <a:lumOff val="85%"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0%">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="224928031"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0%">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15%"/>
+          <a:lumOff val="85%"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://purl.oclc.org/ooxml/drawingml/chart" xmlns:a="http://purl.oclc.org/ooxml/drawingml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0%">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'3.2.б'!$B$3:$B$4</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Названия столбцов</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>ПЕРЕ</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'3.2.б'!$A$5:$A$9</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>абстрактный обьект</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>лицо</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>неодушевленный конкретный объект</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>топоним</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>NA</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'3.2.б'!$B$5:$B$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-20E1-9D45-B7C5-072ED2610050}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'3.2.б'!$C$3:$C$4</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Названия столбцов</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>С</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'3.2.б'!$A$5:$A$9</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>абстрактный обьект</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>лицо</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>неодушевленный конкретный объект</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>топоним</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>NA</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'3.2.б'!$C$5:$C$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-20E1-9D45-B7C5-072ED2610050}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="224889663"/>
+        <c:axId val="224884207"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="224889663"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15%"/>
+                <a:lumOff val="85%"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0%">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="224884207"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="224884207"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15%"/>
+                  <a:lumOff val="85%"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0%">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="224889663"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0%">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15%"/>
+          <a:lumOff val="85%"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://purl.oclc.org/ooxml/drawingml/chart" xmlns:a="http://purl.oclc.org/ooxml/drawingml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0%">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'3.2.в'!$B$3:$B$4</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Названия столбцов</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>ПЕРЕ</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'3.2.в'!$A$5:$A$10</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>абстрактное лицо</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>абстрактный объект</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>лицо</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>неодушевленный конкретный объект</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>топоним</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>NA</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'3.2.в'!$B$5:$B$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>19</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-3ED6-ED45-A798-106055821F8D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'3.2.в'!$C$3:$C$4</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Названия столбцов</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>С</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'3.2.в'!$A$5:$A$10</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>абстрактное лицо</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>абстрактный объект</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>лицо</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>неодушевленный конкретный объект</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>топоним</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>NA</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'3.2.в'!$C$5:$C$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>16</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-3ED6-ED45-A798-106055821F8D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="560515279"/>
+        <c:axId val="181915615"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="560515279"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15%"/>
+                <a:lumOff val="85%"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0%">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="181915615"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="181915615"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15%"/>
+                  <a:lumOff val="85%"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0%">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="560515279"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0%">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15%"/>
+          <a:lumOff val="85%"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://purl.oclc.org/ooxml/drawingml/chart" xmlns:a="http://purl.oclc.org/ooxml/drawingml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0%">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'3.3'!$B$3:$B$4</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Названия столбцов</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>ПЕРЕ</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'3.3'!$A$5:$A$28</c:f>
+              <c:strCache>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v> </c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1972 </c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1980 </c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1981 </c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1990 </c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1992 </c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1996 </c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1997.12.08 </c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1998 </c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1999 </c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2000 </c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2001 </c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2001.11.21 </c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2002 </c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2002.11.01 </c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2003 </c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2003.09.12 </c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2004 </c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2005 </c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2007 </c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2009 </c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2010 </c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2012 </c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2015 </c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'3.3'!$B$5:$B$28</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-DBB5-444B-8F1C-718D4F2D6E0B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'3.3'!$C$3:$C$4</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Названия столбцов</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>С</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'3.3'!$A$5:$A$28</c:f>
+              <c:strCache>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v> </c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1972 </c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1980 </c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1981 </c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1990 </c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1992 </c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1996 </c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1997.12.08 </c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1998 </c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1999 </c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2000 </c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2001 </c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2001.11.21 </c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2002 </c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2002.11.01 </c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2003 </c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2003.09.12 </c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2004 </c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2005 </c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2007 </c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2009 </c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2010 </c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2012 </c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2015 </c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'3.3'!$C$5:$C$28</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-DBB5-444B-8F1C-718D4F2D6E0B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="222575791"/>
+        <c:axId val="222374879"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="222575791"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15%"/>
+                <a:lumOff val="85%"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0%">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="222374879"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="222374879"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15%"/>
+                  <a:lumOff val="85%"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0%">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="222575791"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0%">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15%"/>
+          <a:lumOff val="85%"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://purl.oclc.org/ooxml/drawingml/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60%"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80%"/>
+    <a:lumOff val="20%"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80%"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60%"/>
+    <a:lumOff val="40%"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50%"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70%"/>
+    <a:lumOff val="30%"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70%"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50%"/>
+    <a:lumOff val="50%"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://purl.oclc.org/ooxml/drawingml/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60%"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80%"/>
+    <a:lumOff val="20%"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80%"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60%"/>
+    <a:lumOff val="40%"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50%"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70%"/>
+    <a:lumOff val="30%"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70%"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50%"/>
+    <a:lumOff val="50%"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://purl.oclc.org/ooxml/drawingml/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60%"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80%"/>
+    <a:lumOff val="20%"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80%"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60%"/>
+    <a:lumOff val="40%"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50%"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70%"/>
+    <a:lumOff val="30%"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70%"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50%"/>
+    <a:lumOff val="50%"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://purl.oclc.org/ooxml/drawingml/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60%"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80%"/>
+    <a:lumOff val="20%"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80%"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60%"/>
+    <a:lumOff val="40%"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50%"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70%"/>
+    <a:lumOff val="30%"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70%"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50%"/>
+    <a:lumOff val="50%"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://purl.oclc.org/ooxml/drawingml/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60%"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80%"/>
+    <a:lumOff val="20%"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80%"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60%"/>
+    <a:lumOff val="40%"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50%"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70%"/>
+    <a:lumOff val="30%"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70%"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50%"/>
+    <a:lumOff val="50%"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://purl.oclc.org/ooxml/drawingml/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60%"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80%"/>
+    <a:lumOff val="20%"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80%"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60%"/>
+    <a:lumOff val="40%"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50%"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70%"/>
+    <a:lumOff val="30%"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70%"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50%"/>
+    <a:lumOff val="50%"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://purl.oclc.org/ooxml/drawingml/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60%"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80%"/>
+    <a:lumOff val="20%"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80%"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60%"/>
+    <a:lumOff val="40%"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50%"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70%"/>
+    <a:lumOff val="30%"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70%"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50%"/>
+    <a:lumOff val="50%"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://purl.oclc.org/ooxml/drawingml/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15%"/>
+            <a:lumOff val="85%"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15%"/>
+            <a:lumOff val="85%"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25%"/>
+            <a:lumOff val="75%"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15%"/>
+            <a:lumOff val="85%"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65%"/>
+          <a:lumOff val="35%"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65%"/>
+            <a:lumOff val="35%"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35%"/>
+            <a:lumOff val="65%"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65%"/>
+            <a:lumOff val="35%"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15%"/>
+            <a:lumOff val="85%"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5%"/>
+            <a:lumOff val="95%"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75%"/>
+            <a:lumOff val="25%"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35%"/>
+            <a:lumOff val="65%"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35%"/>
+            <a:lumOff val="65%"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0%"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15%"/>
+            <a:lumOff val="85%"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://purl.oclc.org/ooxml/drawingml/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15%"/>
+            <a:lumOff val="85%"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15%"/>
+            <a:lumOff val="85%"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25%"/>
+            <a:lumOff val="75%"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15%"/>
+            <a:lumOff val="85%"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65%"/>
+          <a:lumOff val="35%"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65%"/>
+            <a:lumOff val="35%"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35%"/>
+            <a:lumOff val="65%"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65%"/>
+            <a:lumOff val="35%"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15%"/>
+            <a:lumOff val="85%"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5%"/>
+            <a:lumOff val="95%"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75%"/>
+            <a:lumOff val="25%"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35%"/>
+            <a:lumOff val="65%"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35%"/>
+            <a:lumOff val="65%"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0%"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15%"/>
+            <a:lumOff val="85%"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://purl.oclc.org/ooxml/drawingml/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15%"/>
+            <a:lumOff val="85%"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15%"/>
+            <a:lumOff val="85%"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25%"/>
+            <a:lumOff val="75%"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15%"/>
+            <a:lumOff val="85%"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65%"/>
+          <a:lumOff val="35%"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65%"/>
+            <a:lumOff val="35%"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35%"/>
+            <a:lumOff val="65%"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65%"/>
+            <a:lumOff val="35%"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15%"/>
+            <a:lumOff val="85%"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5%"/>
+            <a:lumOff val="95%"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75%"/>
+            <a:lumOff val="25%"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35%"/>
+            <a:lumOff val="65%"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35%"/>
+            <a:lumOff val="65%"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0%"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15%"/>
+            <a:lumOff val="85%"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://purl.oclc.org/ooxml/drawingml/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15%"/>
+            <a:lumOff val="85%"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15%"/>
+            <a:lumOff val="85%"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25%"/>
+            <a:lumOff val="75%"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15%"/>
+            <a:lumOff val="85%"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65%"/>
+          <a:lumOff val="35%"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65%"/>
+            <a:lumOff val="35%"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35%"/>
+            <a:lumOff val="65%"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65%"/>
+            <a:lumOff val="35%"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15%"/>
+            <a:lumOff val="85%"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5%"/>
+            <a:lumOff val="95%"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75%"/>
+            <a:lumOff val="25%"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35%"/>
+            <a:lumOff val="65%"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35%"/>
+            <a:lumOff val="65%"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0%"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15%"/>
+            <a:lumOff val="85%"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://purl.oclc.org/ooxml/drawingml/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15%"/>
+            <a:lumOff val="85%"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15%"/>
+            <a:lumOff val="85%"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25%"/>
+            <a:lumOff val="75%"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15%"/>
+            <a:lumOff val="85%"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65%"/>
+          <a:lumOff val="35%"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65%"/>
+            <a:lumOff val="35%"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35%"/>
+            <a:lumOff val="65%"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65%"/>
+            <a:lumOff val="35%"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15%"/>
+            <a:lumOff val="85%"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5%"/>
+            <a:lumOff val="95%"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75%"/>
+            <a:lumOff val="25%"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35%"/>
+            <a:lumOff val="65%"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35%"/>
+            <a:lumOff val="65%"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0%"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15%"/>
+            <a:lumOff val="85%"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://purl.oclc.org/ooxml/drawingml/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15%"/>
+            <a:lumOff val="85%"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15%"/>
+            <a:lumOff val="85%"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25%"/>
+            <a:lumOff val="75%"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15%"/>
+            <a:lumOff val="85%"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65%"/>
+          <a:lumOff val="35%"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65%"/>
+            <a:lumOff val="35%"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35%"/>
+            <a:lumOff val="65%"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65%"/>
+            <a:lumOff val="35%"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15%"/>
+            <a:lumOff val="85%"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5%"/>
+            <a:lumOff val="95%"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75%"/>
+            <a:lumOff val="25%"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35%"/>
+            <a:lumOff val="65%"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35%"/>
+            <a:lumOff val="65%"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0%"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15%"/>
+            <a:lumOff val="85%"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://purl.oclc.org/ooxml/drawingml/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15%"/>
+            <a:lumOff val="85%"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15%"/>
+            <a:lumOff val="85%"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25%"/>
+            <a:lumOff val="75%"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15%"/>
+            <a:lumOff val="85%"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65%"/>
+          <a:lumOff val="35%"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65%"/>
+            <a:lumOff val="35%"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35%"/>
+            <a:lumOff val="65%"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65%"/>
+            <a:lumOff val="35%"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15%"/>
+            <a:lumOff val="85%"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5%"/>
+            <a:lumOff val="95%"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75%"/>
+            <a:lumOff val="25%"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35%"/>
+            <a:lumOff val="65%"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35%"/>
+            <a:lumOff val="65%"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0%"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15%"/>
+            <a:lumOff val="85%"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://purl.oclc.org/ooxml/drawingml/spreadsheetDrawing" xmlns:a="http://purl.oclc.org/ooxml/drawingml/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>717550</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>184150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>69850</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Диаграмма 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5A369E8A-D3E0-3C45-817B-AD79FA56AAF4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://purl.oclc.org/ooxml/drawingml/chart">
+          <c:chart xmlns:c="http://purl.oclc.org/ooxml/drawingml/chart" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://purl.oclc.org/ooxml/drawingml/spreadsheetDrawing" xmlns:a="http://purl.oclc.org/ooxml/drawingml/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>2374446</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>102506</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>585107</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>146956</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Диаграмма 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4695AD01-373A-164B-88B2-5567F943951B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://purl.oclc.org/ooxml/drawingml/chart">
+          <c:chart xmlns:c="http://purl.oclc.org/ooxml/drawingml/chart" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://purl.oclc.org/ooxml/drawingml/spreadsheetDrawing" xmlns:a="http://purl.oclc.org/ooxml/drawingml/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>564229</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>24431</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>104702</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>53127</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Диаграмма 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6700FCA7-4579-B047-AFC6-A934AE7DA109}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://purl.oclc.org/ooxml/drawingml/chart">
+          <c:chart xmlns:c="http://purl.oclc.org/ooxml/drawingml/chart" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://purl.oclc.org/ooxml/drawingml/spreadsheetDrawing" xmlns:a="http://purl.oclc.org/ooxml/drawingml/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>519374</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>135341</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>144060</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>35257</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Диаграмма 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D70181B4-CAB3-3D45-A955-65A07035BB5E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://purl.oclc.org/ooxml/drawingml/chart">
+          <c:chart xmlns:c="http://purl.oclc.org/ooxml/drawingml/chart" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://purl.oclc.org/ooxml/drawingml/spreadsheetDrawing" xmlns:a="http://purl.oclc.org/ooxml/drawingml/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>184150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>558800</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>69850</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Диаграмма 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B857481D-3904-584A-800A-D2AF4D76E5E7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://purl.oclc.org/ooxml/drawingml/chart">
+          <c:chart xmlns:c="http://purl.oclc.org/ooxml/drawingml/chart" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://purl.oclc.org/ooxml/drawingml/spreadsheetDrawing" xmlns:a="http://purl.oclc.org/ooxml/drawingml/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>369455</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>33097</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>15395</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>82357</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Диаграмма 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CD2BE93F-332E-B342-BC04-8914AC5F9420}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://purl.oclc.org/ooxml/drawingml/chart">
+          <c:chart xmlns:c="http://purl.oclc.org/ooxml/drawingml/chart" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://purl.oclc.org/ooxml/drawingml/spreadsheetDrawing" xmlns:a="http://purl.oclc.org/ooxml/drawingml/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>774700</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>44450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>393700</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>120650</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Диаграмма 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C9FEE05B-8A2C-6D43-8117-8529EC34633C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://purl.oclc.org/ooxml/drawingml/chart">
+          <c:chart xmlns:c="http://purl.oclc.org/ooxml/drawingml/chart" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://purl.oclc.org/ooxml/drawingml/main" name="Тема Office">
   <a:themeElements>
@@ -4226,7 +11334,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A3:B106"/>
   <sheetViews>
     <sheetView topLeftCell="A68" workbookViewId="0">
@@ -5073,10 +12181,10 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:BR53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="68" workbookViewId="0">
+    <sheetView topLeftCell="C1" zoomScale="68" workbookViewId="0">
       <selection activeCell="V54" sqref="V54"/>
     </sheetView>
   </sheetViews>
@@ -5263,7 +12371,7 @@
       </c>
       <c r="BR2">
         <f t="shared" ref="BR2:BR22" ca="1" si="0">INT(RAND()*555)</f>
-        <v>429</v>
+        <v>170</v>
       </c>
     </row>
     <row r="3" spans="1:70" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -5344,7 +12452,7 @@
       </c>
       <c r="BR3">
         <f t="shared" ca="1" si="0"/>
-        <v>514</v>
+        <v>454</v>
       </c>
     </row>
     <row r="4" spans="1:70" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -5425,7 +12533,7 @@
       </c>
       <c r="BR4">
         <f t="shared" ca="1" si="0"/>
-        <v>74</v>
+        <v>111</v>
       </c>
     </row>
     <row r="5" spans="1:70" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -5506,7 +12614,7 @@
       </c>
       <c r="BR5">
         <f t="shared" ca="1" si="0"/>
-        <v>511</v>
+        <v>355</v>
       </c>
     </row>
     <row r="6" spans="1:70" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -5587,7 +12695,7 @@
       </c>
       <c r="BR6">
         <f t="shared" ca="1" si="0"/>
-        <v>372</v>
+        <v>469</v>
       </c>
     </row>
     <row r="7" spans="1:70" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -5668,7 +12776,7 @@
       </c>
       <c r="BR7">
         <f t="shared" ca="1" si="0"/>
-        <v>340</v>
+        <v>126</v>
       </c>
     </row>
     <row r="8" spans="1:70" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -5749,7 +12857,7 @@
       </c>
       <c r="BR8">
         <f t="shared" ca="1" si="0"/>
-        <v>469</v>
+        <v>517</v>
       </c>
     </row>
     <row r="9" spans="1:70" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -5830,7 +12938,7 @@
       </c>
       <c r="BR9">
         <f t="shared" ca="1" si="0"/>
-        <v>79</v>
+        <v>143</v>
       </c>
     </row>
     <row r="10" spans="1:70" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -5911,7 +13019,7 @@
       </c>
       <c r="BR10">
         <f t="shared" ca="1" si="0"/>
-        <v>461</v>
+        <v>311</v>
       </c>
     </row>
     <row r="11" spans="1:70" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -5992,7 +13100,7 @@
       </c>
       <c r="BR11">
         <f t="shared" ca="1" si="0"/>
-        <v>37</v>
+        <v>339</v>
       </c>
     </row>
     <row r="12" spans="1:70" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -6073,7 +13181,7 @@
       </c>
       <c r="BR12">
         <f t="shared" ca="1" si="0"/>
-        <v>181</v>
+        <v>315</v>
       </c>
     </row>
     <row r="13" spans="1:70" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -6154,7 +13262,7 @@
       </c>
       <c r="BR13">
         <f t="shared" ca="1" si="0"/>
-        <v>199</v>
+        <v>526</v>
       </c>
     </row>
     <row r="14" spans="1:70" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -6235,7 +13343,7 @@
       </c>
       <c r="BR14">
         <f t="shared" ca="1" si="0"/>
-        <v>195</v>
+        <v>279</v>
       </c>
     </row>
     <row r="15" spans="1:70" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -6316,7 +13424,7 @@
       </c>
       <c r="BR15">
         <f t="shared" ca="1" si="0"/>
-        <v>91</v>
+        <v>503</v>
       </c>
     </row>
     <row r="16" spans="1:70" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -6397,7 +13505,7 @@
       </c>
       <c r="BR16">
         <f t="shared" ca="1" si="0"/>
-        <v>236</v>
+        <v>166</v>
       </c>
     </row>
     <row r="17" spans="1:70" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -6478,7 +13586,7 @@
       </c>
       <c r="BR17">
         <f t="shared" ca="1" si="0"/>
-        <v>360</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:70" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -6559,7 +13667,7 @@
       </c>
       <c r="BR18">
         <f t="shared" ca="1" si="0"/>
-        <v>530</v>
+        <v>217</v>
       </c>
     </row>
     <row r="19" spans="1:70" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -6640,7 +13748,7 @@
       </c>
       <c r="BR19">
         <f t="shared" ca="1" si="0"/>
-        <v>496</v>
+        <v>290</v>
       </c>
     </row>
     <row r="20" spans="1:70" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -6721,7 +13829,7 @@
       </c>
       <c r="BR20">
         <f t="shared" ca="1" si="0"/>
-        <v>361</v>
+        <v>429</v>
       </c>
     </row>
     <row r="21" spans="1:70" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -6802,7 +13910,7 @@
       </c>
       <c r="BR21">
         <f t="shared" ca="1" si="0"/>
-        <v>230</v>
+        <v>270</v>
       </c>
     </row>
     <row r="22" spans="1:70" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -6883,7 +13991,7 @@
       </c>
       <c r="BR22">
         <f t="shared" ca="1" si="0"/>
-        <v>531</v>
+        <v>243</v>
       </c>
     </row>
     <row r="23" spans="1:70" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -9128,17 +16236,17 @@
       <c r="S53" s="13"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:Y51"/>
+  <autoFilter ref="A1:Y51" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A3:D20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A21" sqref="A21"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -9223,15 +16331,16 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A3:H20"/>
   <sheetViews>
     <sheetView zoomScale="112" workbookViewId="0">
-      <selection activeCell="A21" sqref="A21"/>
+      <selection activeCell="G7" sqref="A3:G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -9357,15 +16466,16 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A3:D20"/>
   <sheetViews>
     <sheetView zoomScale="131" workbookViewId="0">
-      <selection activeCell="A21" sqref="A21"/>
+      <selection activeCell="A3" sqref="A3:C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -9533,15 +16643,16 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A3:D20"/>
   <sheetViews>
     <sheetView zoomScale="134" workbookViewId="0">
-      <selection activeCell="A21" sqref="A21"/>
+      <selection activeCell="A3" sqref="A3:C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -9647,15 +16758,16 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A3:D23"/>
   <sheetViews>
     <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="A24" sqref="A24"/>
+      <selection activeCell="C9" sqref="A3:C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -9779,15 +16891,16 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A3:D20"/>
   <sheetViews>
     <sheetView zoomScale="99" workbookViewId="0">
-      <selection activeCell="A21" sqref="A21"/>
+      <selection activeCell="A3" sqref="A3:C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -9917,15 +17030,16 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A3:F29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F26" sqref="F26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M8" sqref="M8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -10279,5 +17393,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>